--- a/xlsx/让·博丹_intext.xlsx
+++ b/xlsx/让·博丹_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>政策_政策_外交政策_让·博丹</t>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A7%91%E5%AD%A6</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%8B-%E8%B2%9D%E5%B0%BC%E6%B6%85%C2%B7%E6%B3%A2%E8%88%92%E5%93%80</t>
   </si>
   <si>
-    <t>雅克-貝尼涅·波舒哀</t>
+    <t>雅克-贝尼涅·波舒哀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%90%9B%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>絕對君主制</t>
+    <t>绝对君主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
